--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\Trabalho\Domate\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B4CA44-234E-402E-8862-423DEFB47ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ED9FE4-5845-4EEA-A820-C5EFC0D5898D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3570" yWindow="1470" windowWidth="21600" windowHeight="12930" xr2:uid="{C3C07BE8-B7CE-4758-9AE6-054A6B94C8DF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="51">
   <si>
     <t>s</t>
   </si>
@@ -417,6 +417,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,7 +436,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CA9C0E-32CE-473A-98C8-6A7A7F8F2F0F}">
   <dimension ref="A1:AK84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AL44" sqref="AL44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,27 +775,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="36" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -1064,27 +1064,27 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="33" t="s">
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="36"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C19" s="14">
@@ -1176,7 +1176,7 @@
       <c r="G23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
-      <c r="K23" s="39"/>
+      <c r="K23" s="33"/>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
     </row>
@@ -1232,6 +1232,7 @@
       </c>
       <c r="C28" s="9"/>
       <c r="E28" s="8"/>
+      <c r="K28" s="19"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -1294,10 +1295,10 @@
       <c r="C35" s="10"/>
     </row>
     <row r="36" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="10"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -1341,10 +1342,10 @@
       <c r="C42" s="10"/>
     </row>
     <row r="43" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="35"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="10"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -1502,14 +1503,14 @@
     <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>COUNTBLANK(D51:AK51)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C51" s="26">
         <f>$B$50-A51</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D51" t="s">
         <v>45</v>
@@ -1587,6 +1588,9 @@
         <v>45</v>
       </c>
       <c r="AC51" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD51" t="s">
         <v>45</v>
       </c>
       <c r="AF51" t="s">
@@ -1596,14 +1600,14 @@
     <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>COUNTBLANK(D52:AK52)</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C52" s="26">
         <f t="shared" ref="C52:C54" si="0">$B$50-A52</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H52" t="s">
         <v>44</v>
@@ -1633,6 +1637,12 @@
         <v>44</v>
       </c>
       <c r="AA52" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD52" t="s">
         <v>45</v>
       </c>
       <c r="AF52" t="s">
@@ -1642,14 +1652,14 @@
     <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53">
         <f>COUNTBLANK(D53:AK53)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C53" s="26">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D53" t="s">
         <v>45</v>
@@ -1727,6 +1737,9 @@
         <v>45</v>
       </c>
       <c r="AC53" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD53" t="s">
         <v>45</v>
       </c>
       <c r="AF53" t="s">
@@ -1736,14 +1749,14 @@
     <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54">
         <f>COUNTBLANK(D54:AK54)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="26">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D54" t="s">
         <v>45</v>
@@ -1821,6 +1834,9 @@
         <v>45</v>
       </c>
       <c r="AC54" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD54" t="s">
         <v>45</v>
       </c>
       <c r="AF54" t="s">
@@ -1868,25 +1884,25 @@
       <c r="A64" s="31"/>
       <c r="B64">
         <f>$B$58*C51</f>
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65">
         <f>$B$58*C52</f>
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66">
         <f>$B$58*C53</f>
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B67">
         <f>$B$58*C54</f>
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1900,7 +1916,7 @@
       </c>
       <c r="B69" s="29">
         <f>$B$61*B64</f>
-        <v>1320</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1909,7 +1925,7 @@
       </c>
       <c r="B70" s="29">
         <f>$B$61*B65</f>
-        <v>360</v>
+        <v>480</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1918,7 +1934,7 @@
       </c>
       <c r="B71" s="29">
         <f>$B$61*B66</f>
-        <v>1320</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1927,7 +1943,7 @@
       </c>
       <c r="B72" s="29">
         <f>$B$61*B67</f>
-        <v>1320</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1936,7 +1952,7 @@
       </c>
       <c r="B73" s="27">
         <f>SUM(B69:B72)</f>
-        <v>4320</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="84" spans="29:37" x14ac:dyDescent="0.25">

--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\Trabalho\Domate\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1ED9FE4-5845-4EEA-A820-C5EFC0D5898D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FD4633-4189-4918-87EE-129DACCFA5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3570" yWindow="1470" windowWidth="21600" windowHeight="12930" xr2:uid="{C3C07BE8-B7CE-4758-9AE6-054A6B94C8DF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="51">
   <si>
     <t>s</t>
   </si>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CA9C0E-32CE-473A-98C8-6A7A7F8F2F0F}">
   <dimension ref="A1:AK84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AL44" sqref="AL44"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AL49" sqref="AL49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,7 +1177,7 @@
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="33"/>
-      <c r="L23" s="24"/>
+      <c r="L23" s="33"/>
       <c r="M23" s="24"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -1222,6 +1222,7 @@
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -1503,14 +1504,14 @@
     <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>COUNTBLANK(D51:AK51)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C51" s="26">
         <f>$B$50-A51</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
         <v>45</v>
@@ -1591,6 +1592,9 @@
         <v>45</v>
       </c>
       <c r="AD51" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE51" t="s">
         <v>45</v>
       </c>
       <c r="AF51" t="s">
@@ -1652,14 +1656,14 @@
     <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53">
         <f>COUNTBLANK(D53:AK53)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C53" s="26">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D53" t="s">
         <v>45</v>
@@ -1740,6 +1744,9 @@
         <v>45</v>
       </c>
       <c r="AD53" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE53" t="s">
         <v>45</v>
       </c>
       <c r="AF53" t="s">
@@ -1749,14 +1756,14 @@
     <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54">
         <f>COUNTBLANK(D54:AK54)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="26">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
         <v>45</v>
@@ -1837,6 +1844,9 @@
         <v>45</v>
       </c>
       <c r="AD54" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE54" t="s">
         <v>45</v>
       </c>
       <c r="AF54" t="s">
@@ -1884,7 +1894,7 @@
       <c r="A64" s="31"/>
       <c r="B64">
         <f>$B$58*C51</f>
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1896,13 +1906,13 @@
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66">
         <f>$B$58*C53</f>
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B67">
         <f>$B$58*C54</f>
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1916,7 +1926,7 @@
       </c>
       <c r="B69" s="29">
         <f>$B$61*B64</f>
-        <v>1380</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1934,7 +1944,7 @@
       </c>
       <c r="B71" s="29">
         <f>$B$61*B66</f>
-        <v>1380</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1943,7 +1953,7 @@
       </c>
       <c r="B72" s="29">
         <f>$B$61*B67</f>
-        <v>1380</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -1952,7 +1962,7 @@
       </c>
       <c r="B73" s="27">
         <f>SUM(B69:B72)</f>
-        <v>4620</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="84" spans="29:37" x14ac:dyDescent="0.25">

--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\Trabalho\Domate\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FD4633-4189-4918-87EE-129DACCFA5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CFA003-C7AF-4BF7-BCE2-F4391F332ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="1470" windowWidth="21600" windowHeight="12930" xr2:uid="{C3C07BE8-B7CE-4758-9AE6-054A6B94C8DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3C07BE8-B7CE-4758-9AE6-054A6B94C8DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="56">
   <si>
     <t>s</t>
   </si>
@@ -188,6 +188,21 @@
   </si>
   <si>
     <t>Revisar o documentodo Projeto</t>
+  </si>
+  <si>
+    <t>ga</t>
+  </si>
+  <si>
+    <t>vc</t>
+  </si>
+  <si>
+    <t>mb</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Total h</t>
   </si>
 </sst>
 </file>
@@ -282,7 +297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -375,11 +390,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -434,6 +458,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -752,14 +782,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CA9C0E-32CE-473A-98C8-6A7A7F8F2F0F}">
   <dimension ref="A1:AK84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AL49" sqref="AL49"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.140625" customWidth="1"/>
     <col min="4" max="7" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
@@ -1064,6 +1094,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="34" t="s">
         <v>4</v>
       </c>
@@ -1087,6 +1119,8 @@
       <c r="S18" s="36"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="14">
         <v>23</v>
       </c>
@@ -1604,14 +1638,14 @@
     <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>COUNTBLANK(D52:AK52)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C52" s="26">
         <f t="shared" ref="C52:C54" si="0">$B$50-A52</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H52" t="s">
         <v>44</v>
@@ -1647,6 +1681,9 @@
         <v>45</v>
       </c>
       <c r="AD52" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE52" t="s">
         <v>45</v>
       </c>
       <c r="AF52" t="s">
@@ -1891,36 +1928,54 @@
       </c>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
+      <c r="A64" t="s">
+        <v>55</v>
+      </c>
       <c r="B64">
         <f>$B$58*C51</f>
         <v>96</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f>SUM(B64:B67)</f>
+        <v>324</v>
+      </c>
       <c r="B65">
         <f>$B$58*C52</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="C65" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B66">
         <f>$B$58*C53</f>
         <v>96</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67">
         <f>$B$58*C54</f>
         <v>96</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>26</v>
       </c>
@@ -1929,16 +1984,16 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B70" s="29">
         <f>$B$61*B65</f>
-        <v>480</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>25</v>
       </c>
@@ -1947,7 +2002,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>24</v>
       </c>
@@ -1956,13 +2011,13 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="28" t="s">
         <v>48</v>
       </c>
       <c r="B73" s="27">
         <f>SUM(B69:B72)</f>
-        <v>4800</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="84" spans="29:37" x14ac:dyDescent="0.25">
@@ -1992,13 +2047,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="C18:J18"/>
     <mergeCell ref="K18:S18"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="C1:S1"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A18:B19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\Trabalho\Domate\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CFA003-C7AF-4BF7-BCE2-F4391F332ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C65702-F6AF-4C2B-9B24-51792456E58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3C07BE8-B7CE-4758-9AE6-054A6B94C8DF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="56">
   <si>
     <t>s</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Elaborar o Dicionario de Dados(JSON)</t>
   </si>
   <si>
-    <t>Apresentação</t>
-  </si>
-  <si>
     <t>Prototipagem de tela</t>
   </si>
   <si>
@@ -203,6 +200,9 @@
   </si>
   <si>
     <t>Total h</t>
+  </si>
+  <si>
+    <t>Apresentação 13/06</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -466,6 +465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CA9C0E-32CE-473A-98C8-6A7A7F8F2F0F}">
   <dimension ref="A1:AK84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,27 +805,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="38"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="37" t="s">
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -882,10 +882,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="23"/>
@@ -893,10 +893,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="18"/>
@@ -906,10 +906,10 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="18"/>
@@ -920,7 +920,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="15"/>
@@ -943,7 +943,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="18"/>
@@ -953,7 +953,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="18"/>
@@ -963,7 +963,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="18"/>
@@ -973,7 +973,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="18"/>
@@ -993,26 +993,36 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I11" s="15"/>
-      <c r="P11" s="1"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="18"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="15"/>
+      <c r="J12" s="18"/>
+      <c r="S12" s="18"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q13" s="15"/>
     </row>
@@ -1021,21 +1031,21 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="19"/>
       <c r="M16" s="15"/>
@@ -1045,82 +1055,82 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
         <v>32</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="s">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I17" t="s">
         <v>0</v>
       </c>
       <c r="J17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" t="s">
         <v>32</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>33</v>
-      </c>
-      <c r="L17" t="s">
-        <v>34</v>
       </c>
       <c r="M17" t="s">
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O17" t="s">
         <v>0</v>
       </c>
       <c r="P17" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" t="s">
         <v>32</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>33</v>
-      </c>
-      <c r="R17" t="s">
-        <v>34</v>
       </c>
       <c r="S17" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="34" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="36"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="35"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="14">
         <v>23</v>
       </c>
@@ -1171,28 +1181,28 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22" s="8"/>
     </row>
@@ -1201,7 +1211,7 @@
         <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -1210,16 +1220,17 @@
       <c r="G23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="24"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="O23" s="18"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="8"/>
     </row>
@@ -1228,7 +1239,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="8"/>
     </row>
@@ -1237,7 +1248,7 @@
         <v>6</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" s="8"/>
     </row>
@@ -1246,7 +1257,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="18"/>
@@ -1257,44 +1268,56 @@
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="O27" s="18"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="8"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
       <c r="K28" s="19"/>
+      <c r="M28" s="18"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="9"/>
       <c r="E29" s="8"/>
+      <c r="M29" s="18"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="9"/>
       <c r="E30" s="8"/>
+      <c r="I30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="O30" s="18"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="9"/>
       <c r="E31" s="8"/>
@@ -1304,7 +1327,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="9"/>
@@ -1312,14 +1335,14 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="9"/>
       <c r="E33" s="8"/>
-      <c r="S33" s="18"/>
+      <c r="S33" s="19"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B34" s="11"/>
@@ -1330,43 +1353,43 @@
       <c r="C35" s="10"/>
     </row>
     <row r="36" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="36"/>
+      <c r="A36" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="35"/>
       <c r="C36" s="10"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="10"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="10"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="10"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="9"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="10"/>
@@ -1377,43 +1400,43 @@
       <c r="C42" s="10"/>
     </row>
     <row r="43" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="36"/>
+      <c r="A43" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="35"/>
       <c r="C43" s="10"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C44" s="10"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -1421,7 +1444,7 @@
     </row>
     <row r="49" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="22"/>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="31" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1430,7 +1453,7 @@
         <v>29</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D50" s="16">
         <v>3</v>
@@ -1445,7 +1468,7 @@
         <v>6</v>
       </c>
       <c r="H50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I50" s="14">
         <v>9</v>
@@ -1463,7 +1486,7 @@
         <v>13</v>
       </c>
       <c r="N50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O50" s="14">
         <v>16</v>
@@ -1481,7 +1504,7 @@
         <v>20</v>
       </c>
       <c r="T50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U50" s="14">
         <v>23</v>
@@ -1499,7 +1522,7 @@
         <v>27</v>
       </c>
       <c r="Z50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA50" s="14">
         <v>30</v>
@@ -1517,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="AF50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AG50" s="14">
         <v>6</v>
@@ -1538,379 +1561,415 @@
     <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>COUNTBLANK(D51:AK51)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" s="26">
+        <v>30</v>
+      </c>
+      <c r="C51" s="25">
         <f>$B$50-A51</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF51" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG51" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>COUNTBLANK(D52:AK52)</f>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="26">
+        <v>27</v>
+      </c>
+      <c r="C52" s="25">
         <f t="shared" ref="C52:C54" si="0">$B$50-A52</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H52" t="s">
+        <v>43</v>
+      </c>
+      <c r="I52" t="s">
+        <v>44</v>
+      </c>
+      <c r="J52" t="s">
+        <v>44</v>
+      </c>
+      <c r="K52" t="s">
+        <v>44</v>
+      </c>
+      <c r="L52" t="s">
+        <v>44</v>
+      </c>
+      <c r="M52" t="s">
         <v>44</v>
       </c>
       <c r="N52" t="s">
+        <v>43</v>
+      </c>
+      <c r="P52" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>44</v>
+      </c>
+      <c r="S52" t="s">
         <v>44</v>
       </c>
       <c r="T52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF52" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG52" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53">
         <f>COUNTBLANK(D53:AK53)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="26">
+        <v>28</v>
+      </c>
+      <c r="C53" s="25">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF53" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG53" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54">
         <f>COUNTBLANK(D54:AK54)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="26">
+        <v>29</v>
+      </c>
+      <c r="C54" s="25">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AE54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG54" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
-      <c r="B56" s="25" t="s">
-        <v>43</v>
+      <c r="B56" s="24" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A57" s="30"/>
+      <c r="A57" s="29"/>
       <c r="B57" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
+      <c r="A58" s="30"/>
       <c r="B58" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.25">
@@ -1919,105 +1978,105 @@
       </c>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A62" s="30"/>
+      <c r="A62" s="29"/>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A63" s="30"/>
-      <c r="B63" s="25" t="s">
-        <v>41</v>
+      <c r="A63" s="29"/>
+      <c r="B63" s="24" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B64">
         <f>$B$58*C51</f>
-        <v>96</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>51</v>
+        <v>100</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>SUM(B64:B67)</f>
-        <v>324</v>
+        <v>372</v>
       </c>
       <c r="B65">
         <f>$B$58*C52</f>
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B66">
         <f>$B$58*C53</f>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67">
         <f>$B$58*C54</f>
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="25" t="s">
-        <v>47</v>
+      <c r="A68" s="24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B69" s="29">
+        <v>25</v>
+      </c>
+      <c r="B69" s="28">
         <f>$B$61*B64</f>
-        <v>1440</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B70" s="29">
+        <v>26</v>
+      </c>
+      <c r="B70" s="28">
         <f>$B$61*B65</f>
-        <v>540</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B71" s="29">
+        <v>24</v>
+      </c>
+      <c r="B71" s="28">
         <f>$B$61*B66</f>
-        <v>1440</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" s="29">
+        <v>23</v>
+      </c>
+      <c r="B72" s="28">
         <f>$B$61*B67</f>
-        <v>1440</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="B73" s="27">
+      <c r="A73" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" s="26">
         <f>SUM(B69:B72)</f>
-        <v>4860</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="84" spans="29:37" x14ac:dyDescent="0.25">

--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\Trabalho\Domate\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C65702-F6AF-4C2B-9B24-51792456E58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172463B9-F7D9-45DB-B57F-11D5DB58A336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3C07BE8-B7CE-4758-9AE6-054A6B94C8DF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="56">
   <si>
     <t>s</t>
   </si>
@@ -441,6 +441,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,7 +466,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CA9C0E-32CE-473A-98C8-6A7A7F8F2F0F}">
   <dimension ref="A1:AK84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,27 +805,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="36" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -1001,7 +1001,7 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
       <c r="O11" s="19"/>
-      <c r="P11" s="41"/>
+      <c r="P11" s="33"/>
       <c r="Q11" s="18"/>
       <c r="R11" s="19"/>
       <c r="S11" s="18"/>
@@ -1104,33 +1104,33 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="33" t="s">
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="33" t="s">
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="36"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="14">
         <v>23</v>
       </c>
@@ -1224,6 +1224,7 @@
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
       <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -1270,6 +1271,7 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
       <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -1311,6 +1313,7 @@
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
       <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -1353,10 +1356,10 @@
       <c r="C35" s="10"/>
     </row>
     <row r="36" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="35"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="10"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -1400,10 +1403,10 @@
       <c r="C42" s="10"/>
     </row>
     <row r="43" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="35"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="10"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -1561,14 +1564,14 @@
     <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>COUNTBLANK(D51:AK51)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C51" s="25">
         <f>$B$50-A51</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D51" t="s">
         <v>44</v>
@@ -1658,20 +1661,23 @@
         <v>43</v>
       </c>
       <c r="AG51" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH51" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>COUNTBLANK(D52:AK52)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C52" s="25">
         <f t="shared" ref="C52:C54" si="0">$B$50-A52</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
         <v>43</v>
@@ -1740,20 +1746,23 @@
         <v>43</v>
       </c>
       <c r="AG52" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH52" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53">
         <f>COUNTBLANK(D53:AK53)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C53" s="25">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D53" t="s">
         <v>44</v>
@@ -1843,20 +1852,23 @@
         <v>43</v>
       </c>
       <c r="AG53" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH53" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54">
         <f>COUNTBLANK(D54:AK54)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C54" s="25">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D54" t="s">
         <v>44</v>
@@ -1946,6 +1958,9 @@
         <v>43</v>
       </c>
       <c r="AG54" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH54" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1992,7 +2007,7 @@
       </c>
       <c r="B64">
         <f>$B$58*C51</f>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C64" s="30" t="s">
         <v>50</v>
@@ -2001,11 +2016,11 @@
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>SUM(B64:B67)</f>
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="B65">
         <f>$B$58*C52</f>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C65" t="s">
         <v>52</v>
@@ -2014,7 +2029,7 @@
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B66">
         <f>$B$58*C53</f>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
         <v>53</v>
@@ -2023,7 +2038,7 @@
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67">
         <f>$B$58*C54</f>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C67" t="s">
         <v>51</v>
@@ -2040,7 +2055,7 @@
       </c>
       <c r="B69" s="28">
         <f>$B$61*B64</f>
-        <v>1500</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2049,7 +2064,7 @@
       </c>
       <c r="B70" s="28">
         <f>$B$61*B65</f>
-        <v>1080</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2058,7 +2073,7 @@
       </c>
       <c r="B71" s="28">
         <f>$B$61*B66</f>
-        <v>1500</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2067,7 +2082,7 @@
       </c>
       <c r="B72" s="28">
         <f>$B$61*B67</f>
-        <v>1500</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2076,7 +2091,7 @@
       </c>
       <c r="B73" s="26">
         <f>SUM(B69:B72)</f>
-        <v>5580</v>
+        <v>5820</v>
       </c>
     </row>
     <row r="84" spans="29:37" x14ac:dyDescent="0.25">

--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\Trabalho\Domate\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172463B9-F7D9-45DB-B57F-11D5DB58A336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3E5340-B623-4D3D-B5D4-C2505178B734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3C07BE8-B7CE-4758-9AE6-054A6B94C8DF}"/>
+    <workbookView xWindow="4605" yWindow="2505" windowWidth="21600" windowHeight="12930" xr2:uid="{C3C07BE8-B7CE-4758-9AE6-054A6B94C8DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="56">
   <si>
     <t>s</t>
   </si>
@@ -392,10 +392,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -783,7 +783,7 @@
   <dimension ref="A1:AK84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,6 +1051,8 @@
       <c r="M16" s="15"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1107,7 @@
     </row>
     <row r="18" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="34" t="s">
         <v>4</v>
       </c>
@@ -1130,7 +1132,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="14">
         <v>23</v>
       </c>
@@ -1187,6 +1189,7 @@
         <v>35</v>
       </c>
       <c r="E20" s="8"/>
+      <c r="Q20" s="8"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -1196,6 +1199,7 @@
         <v>35</v>
       </c>
       <c r="E21" s="8"/>
+      <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -1205,6 +1209,7 @@
         <v>35</v>
       </c>
       <c r="E22" s="8"/>
+      <c r="Q22" s="8"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -1225,6 +1230,8 @@
       <c r="M23" s="32"/>
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="18"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -1234,6 +1241,7 @@
         <v>28</v>
       </c>
       <c r="E24" s="8"/>
+      <c r="Q24" s="8"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -1243,6 +1251,7 @@
         <v>30</v>
       </c>
       <c r="E25" s="8"/>
+      <c r="Q25" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -1252,6 +1261,7 @@
         <v>30</v>
       </c>
       <c r="E26" s="8"/>
+      <c r="Q26" s="8"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -1272,6 +1282,8 @@
       <c r="M27" s="18"/>
       <c r="O27" s="18"/>
       <c r="P27" s="18"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="18"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -1287,6 +1299,7 @@
       <c r="G28" s="18"/>
       <c r="K28" s="19"/>
       <c r="M28" s="18"/>
+      <c r="Q28" s="8"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -1298,6 +1311,7 @@
       <c r="C29" s="9"/>
       <c r="E29" s="8"/>
       <c r="M29" s="18"/>
+      <c r="Q29" s="8"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -1314,6 +1328,7 @@
       <c r="M30" s="18"/>
       <c r="O30" s="18"/>
       <c r="P30" s="18"/>
+      <c r="Q30" s="8"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -1327,6 +1342,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
+      <c r="Q31" s="8"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
@@ -1335,6 +1351,7 @@
       <c r="B32" s="3"/>
       <c r="C32" s="9"/>
       <c r="E32" s="8"/>
+      <c r="Q32" s="8"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
@@ -1345,6 +1362,7 @@
       </c>
       <c r="C33" s="9"/>
       <c r="E33" s="8"/>
+      <c r="Q33" s="8"/>
       <c r="S33" s="19"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -1564,14 +1582,14 @@
     <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>COUNTBLANK(D51:AK51)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C51" s="25">
         <f>$B$50-A51</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D51" t="s">
         <v>44</v>
@@ -1664,20 +1682,26 @@
         <v>44</v>
       </c>
       <c r="AH51" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ51" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>COUNTBLANK(D52:AK52)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C52" s="25">
         <f t="shared" ref="C52:C54" si="0">$B$50-A52</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
         <v>43</v>
@@ -1749,20 +1773,23 @@
         <v>44</v>
       </c>
       <c r="AH52" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI52" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53">
         <f>COUNTBLANK(D53:AK53)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C53" s="25">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D53" t="s">
         <v>44</v>
@@ -1855,20 +1882,26 @@
         <v>44</v>
       </c>
       <c r="AH53" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ53" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54">
         <f>COUNTBLANK(D54:AK54)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C54" s="25">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D54" t="s">
         <v>44</v>
@@ -1961,6 +1994,12 @@
         <v>44</v>
       </c>
       <c r="AH54" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ54" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2007,7 +2046,7 @@
       </c>
       <c r="B64">
         <f>$B$58*C51</f>
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C64" s="30" t="s">
         <v>50</v>
@@ -2016,11 +2055,11 @@
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>SUM(B64:B67)</f>
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="B65">
         <f>$B$58*C52</f>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C65" t="s">
         <v>52</v>
@@ -2029,7 +2068,7 @@
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B66">
         <f>$B$58*C53</f>
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C66" t="s">
         <v>53</v>
@@ -2038,7 +2077,7 @@
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67">
         <f>$B$58*C54</f>
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C67" t="s">
         <v>51</v>
@@ -2055,7 +2094,7 @@
       </c>
       <c r="B69" s="28">
         <f>$B$61*B64</f>
-        <v>1560</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2064,7 +2103,7 @@
       </c>
       <c r="B70" s="28">
         <f>$B$61*B65</f>
-        <v>1140</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2073,7 +2112,7 @@
       </c>
       <c r="B71" s="28">
         <f>$B$61*B66</f>
-        <v>1560</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2082,7 +2121,7 @@
       </c>
       <c r="B72" s="28">
         <f>$B$61*B67</f>
-        <v>1560</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2091,7 +2130,7 @@
       </c>
       <c r="B73" s="26">
         <f>SUM(B69:B72)</f>
-        <v>5820</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="84" spans="29:37" x14ac:dyDescent="0.25">
@@ -2128,7 +2167,7 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="C1:S1"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="A17:B19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\Trabalho\Domate\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3E5340-B623-4D3D-B5D4-C2505178B734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E83AAFB-8A41-4797-9620-8B19E65CE368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="2505" windowWidth="21600" windowHeight="12930" xr2:uid="{C3C07BE8-B7CE-4758-9AE6-054A6B94C8DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3C07BE8-B7CE-4758-9AE6-054A6B94C8DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="56">
   <si>
     <t>s</t>
   </si>
@@ -460,10 +460,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CA9C0E-32CE-473A-98C8-6A7A7F8F2F0F}">
   <dimension ref="A1:AK84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,8 +1051,8 @@
       <c r="M16" s="15"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -1106,8 +1106,8 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="40"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
       <c r="C18" s="34" t="s">
         <v>4</v>
       </c>
@@ -1312,6 +1312,8 @@
       <c r="E29" s="8"/>
       <c r="M29" s="18"/>
       <c r="Q29" s="8"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="19"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -1329,6 +1331,8 @@
       <c r="O30" s="18"/>
       <c r="P30" s="18"/>
       <c r="Q30" s="8"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="19"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -1694,14 +1698,14 @@
     <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>COUNTBLANK(D52:AK52)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C52" s="25">
         <f t="shared" ref="C52:C54" si="0">$B$50-A52</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H52" t="s">
         <v>43</v>
@@ -1776,6 +1780,9 @@
         <v>44</v>
       </c>
       <c r="AI52" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ52" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2055,11 +2062,11 @@
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>SUM(B64:B67)</f>
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B65">
         <f>$B$58*C52</f>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s">
         <v>52</v>
@@ -2103,7 +2110,7 @@
       </c>
       <c r="B70" s="28">
         <f>$B$61*B65</f>
-        <v>1200</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2130,7 +2137,7 @@
       </c>
       <c r="B73" s="26">
         <f>SUM(B69:B72)</f>
-        <v>6240</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="84" spans="29:37" x14ac:dyDescent="0.25">

--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\Trabalho\Domate\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E83AAFB-8A41-4797-9620-8B19E65CE368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C0D930-C934-40B8-8566-76045F9D7AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3C07BE8-B7CE-4758-9AE6-054A6B94C8DF}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -466,6 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,7 +784,7 @@
   <dimension ref="A1:AK84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,10 +1344,12 @@
       </c>
       <c r="C31" s="9"/>
       <c r="E31" s="8"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="18"/>
       <c r="K31" s="19"/>
+      <c r="M31" s="18"/>
       <c r="Q31" s="8"/>
+      <c r="S31" s="42"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">

--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\Trabalho\Domate\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C0D930-C934-40B8-8566-76045F9D7AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E8EBAC-E67C-4035-A2BE-25BB6AE3F602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3C07BE8-B7CE-4758-9AE6-054A6B94C8DF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="56">
   <si>
     <t>s</t>
   </si>
@@ -442,6 +442,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -466,7 +467,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -784,7 +784,7 @@
   <dimension ref="A1:AK84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="T69" sqref="T69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,27 +806,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="38"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="37" t="s">
+      <c r="A1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -1052,8 +1052,8 @@
       <c r="M16" s="15"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -1107,33 +1107,33 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="34" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="34" t="s">
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="37"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="14">
         <v>23</v>
       </c>
@@ -1233,6 +1233,7 @@
       <c r="P23" s="18"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -1285,6 +1286,7 @@
       <c r="P27" s="18"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -1333,7 +1335,7 @@
       <c r="P30" s="18"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="18"/>
-      <c r="S30" s="19"/>
+      <c r="S30" s="18"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -1349,7 +1351,7 @@
       <c r="K31" s="19"/>
       <c r="M31" s="18"/>
       <c r="Q31" s="8"/>
-      <c r="S31" s="42"/>
+      <c r="S31" s="34"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
@@ -1359,6 +1361,7 @@
       <c r="C32" s="9"/>
       <c r="E32" s="8"/>
       <c r="Q32" s="8"/>
+      <c r="S32" s="18"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
@@ -1381,10 +1384,10 @@
       <c r="C35" s="10"/>
     </row>
     <row r="36" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="36"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="10"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -1428,10 +1431,10 @@
       <c r="C42" s="10"/>
     </row>
     <row r="43" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="36"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="10"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -1589,14 +1592,14 @@
     <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>COUNTBLANK(D51:AK51)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C51" s="25">
         <f>$B$50-A51</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
         <v>44</v>
@@ -1695,20 +1698,23 @@
         <v>44</v>
       </c>
       <c r="AJ51" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK51" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>COUNTBLANK(D52:AK52)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C52" s="25">
         <f t="shared" ref="C52:C54" si="0">$B$50-A52</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H52" t="s">
         <v>43</v>
@@ -1786,20 +1792,23 @@
         <v>44</v>
       </c>
       <c r="AJ52" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK52" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53">
         <f>COUNTBLANK(D53:AK53)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C53" s="25">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D53" t="s">
         <v>44</v>
@@ -1898,20 +1907,23 @@
         <v>44</v>
       </c>
       <c r="AJ53" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK53" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54">
         <f>COUNTBLANK(D54:AK54)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C54" s="25">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D54" t="s">
         <v>44</v>
@@ -2010,6 +2022,9 @@
         <v>44</v>
       </c>
       <c r="AJ54" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK54" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2056,7 +2071,7 @@
       </c>
       <c r="B64">
         <f>$B$58*C51</f>
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C64" s="30" t="s">
         <v>50</v>
@@ -2065,11 +2080,11 @@
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>SUM(B64:B67)</f>
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="B65">
         <f>$B$58*C52</f>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C65" t="s">
         <v>52</v>
@@ -2078,7 +2093,7 @@
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B66">
         <f>$B$58*C53</f>
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C66" t="s">
         <v>53</v>
@@ -2087,7 +2102,7 @@
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67">
         <f>$B$58*C54</f>
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C67" t="s">
         <v>51</v>
@@ -2104,7 +2119,7 @@
       </c>
       <c r="B69" s="28">
         <f>$B$61*B64</f>
-        <v>1680</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2113,7 +2128,7 @@
       </c>
       <c r="B70" s="28">
         <f>$B$61*B65</f>
-        <v>1260</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2122,7 +2137,7 @@
       </c>
       <c r="B71" s="28">
         <f>$B$61*B66</f>
-        <v>1680</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2131,7 +2146,7 @@
       </c>
       <c r="B72" s="28">
         <f>$B$61*B67</f>
-        <v>1680</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2140,7 +2155,7 @@
       </c>
       <c r="B73" s="26">
         <f>SUM(B69:B72)</f>
-        <v>6300</v>
+        <v>6540</v>
       </c>
     </row>
     <row r="84" spans="29:37" x14ac:dyDescent="0.25">

--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\Trabalho\Domate\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E8EBAC-E67C-4035-A2BE-25BB6AE3F602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D4AB8EC-A01E-4C2E-A054-B4AAFB67A466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3C07BE8-B7CE-4758-9AE6-054A6B94C8DF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="56">
   <si>
     <t>s</t>
   </si>
@@ -781,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CA9C0E-32CE-473A-98C8-6A7A7F8F2F0F}">
-  <dimension ref="A1:AK84"/>
+  <dimension ref="A1:AN84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T69" sqref="T69"/>
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,8 +801,10 @@
     <col min="21" max="25" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
     <col min="27" max="31" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="33" max="37" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -1051,7 +1053,7 @@
       <c r="C16" s="19"/>
       <c r="M16" s="15"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
       <c r="B17" s="41"/>
       <c r="C17" t="s">
@@ -1106,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
       <c r="C18" s="35" t="s">
@@ -1119,19 +1121,22 @@
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
       <c r="J18" s="37"/>
-      <c r="K18" s="35" t="s">
+      <c r="K18" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="37"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="14">
@@ -1181,8 +1186,14 @@
       <c r="S19" s="14">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <v>13</v>
+      </c>
+      <c r="V19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
@@ -1192,7 +1203,7 @@
       <c r="E20" s="8"/>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
@@ -1202,7 +1213,7 @@
       <c r="E21" s="8"/>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
@@ -1212,7 +1223,7 @@
       <c r="E22" s="8"/>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -1234,8 +1245,9 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="18"/>
       <c r="S23" s="18"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U23" s="18"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
@@ -1245,7 +1257,7 @@
       <c r="E24" s="8"/>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
@@ -1255,7 +1267,7 @@
       <c r="E25" s="8"/>
       <c r="Q25" s="8"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>6</v>
       </c>
@@ -1265,7 +1277,7 @@
       <c r="E26" s="8"/>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>10</v>
       </c>
@@ -1287,8 +1299,9 @@
       <c r="Q27" s="8"/>
       <c r="R27" s="18"/>
       <c r="S27" s="18"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U27" s="18"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>9</v>
       </c>
@@ -1303,8 +1316,9 @@
       <c r="K28" s="19"/>
       <c r="M28" s="18"/>
       <c r="Q28" s="8"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U28" s="19"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>13</v>
       </c>
@@ -1318,7 +1332,7 @@
       <c r="R29" s="18"/>
       <c r="S29" s="19"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
@@ -1336,8 +1350,9 @@
       <c r="Q30" s="8"/>
       <c r="R30" s="18"/>
       <c r="S30" s="18"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U30" s="18"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>8</v>
       </c>
@@ -1352,8 +1367,9 @@
       <c r="M31" s="18"/>
       <c r="Q31" s="8"/>
       <c r="S31" s="34"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U31" s="18"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>49</v>
       </c>
@@ -1362,8 +1378,10 @@
       <c r="E32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="S32" s="18"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>55</v>
       </c>
@@ -1374,70 +1392,71 @@
       <c r="E33" s="8"/>
       <c r="Q33" s="8"/>
       <c r="S33" s="19"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V33" s="18"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B34" s="11"/>
       <c r="C34" s="10"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B35" s="11"/>
       <c r="C35" s="10"/>
     </row>
-    <row r="36" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="37"/>
       <c r="C36" s="10"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="10"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="10"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="10"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="9"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B41" s="8"/>
       <c r="C41" s="10"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="10"/>
     </row>
-    <row r="43" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="35" t="s">
         <v>22</v>
       </c>
       <c r="B43" s="37"/>
       <c r="C43" s="10"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>25</v>
       </c>
@@ -1446,7 +1465,7 @@
       </c>
       <c r="C44" s="10"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>26</v>
       </c>
@@ -1454,7 +1473,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>24</v>
       </c>
@@ -1462,7 +1481,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>23</v>
       </c>
@@ -1470,16 +1489,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B48" s="11"/>
     </row>
-    <row r="49" spans="1:37" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="22"/>
       <c r="B49" s="31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>29</v>
       </c>
@@ -1588,18 +1607,26 @@
       <c r="AK50" s="14">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL50" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM50">
+        <v>13</v>
+      </c>
+      <c r="AN50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f>COUNTBLANK(D51:AK51)</f>
-        <v>0</v>
+        <f>COUNTBLANK(D51:AN51)</f>
+        <v>1</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C51" s="25">
-        <f>$B$50-A51</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D51" t="s">
         <v>44</v>
@@ -1703,18 +1730,23 @@
       <c r="AK51" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL51" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f>COUNTBLANK(D52:AK52)</f>
-        <v>7</v>
+        <f>COUNTBLANK(D52:AN52)</f>
+        <v>8</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C52" s="25">
-        <f t="shared" ref="C52:C54" si="0">$B$50-A52</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H52" t="s">
         <v>43</v>
@@ -1797,18 +1829,23 @@
       <c r="AK52" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL52" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f>COUNTBLANK(D53:AK53)</f>
-        <v>0</v>
+        <f>COUNTBLANK(D53:AN53)</f>
+        <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C53" s="25">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" t="s">
         <v>44</v>
@@ -1912,18 +1949,23 @@
       <c r="AK53" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL53" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f>COUNTBLANK(D54:AK54)</f>
-        <v>0</v>
+        <f>COUNTBLANK(D54:AN54)</f>
+        <v>1</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C54" s="25">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54" t="s">
         <v>44</v>
@@ -2027,51 +2069,57 @@
       <c r="AK54" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL54" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A57" s="29"/>
       <c r="B57" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A58" s="30"/>
       <c r="B58" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
       <c r="B63" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>54</v>
       </c>
       <c r="B64">
         <f>$B$58*C51</f>
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C64" s="30" t="s">
         <v>50</v>
@@ -2080,11 +2128,11 @@
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>SUM(B64:B67)</f>
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="B65">
         <f>$B$58*C52</f>
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
         <v>52</v>
@@ -2093,7 +2141,7 @@
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B66">
         <f>$B$58*C53</f>
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C66" t="s">
         <v>53</v>
@@ -2102,7 +2150,7 @@
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67">
         <f>$B$58*C54</f>
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C67" t="s">
         <v>51</v>
@@ -2119,7 +2167,7 @@
       </c>
       <c r="B69" s="28">
         <f>$B$61*B64</f>
-        <v>1740</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2128,7 +2176,7 @@
       </c>
       <c r="B70" s="28">
         <f>$B$61*B65</f>
-        <v>1320</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2137,7 +2185,7 @@
       </c>
       <c r="B71" s="28">
         <f>$B$61*B66</f>
-        <v>1740</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2146,7 +2194,7 @@
       </c>
       <c r="B72" s="28">
         <f>$B$61*B67</f>
-        <v>1740</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2155,7 +2203,7 @@
       </c>
       <c r="B73" s="26">
         <f>SUM(B69:B72)</f>
-        <v>6540</v>
+        <v>6780</v>
       </c>
     </row>
     <row r="84" spans="29:37" x14ac:dyDescent="0.25">
@@ -2186,8 +2234,8 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="K18:V18"/>
     <mergeCell ref="C18:J18"/>
-    <mergeCell ref="K18:S18"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="C1:S1"/>

--- a/Documentos/Cronograma.xlsx
+++ b/Documentos/Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desenvolvimento\Desktop\Trabalho\Domate\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D4AB8EC-A01E-4C2E-A054-B4AAFB67A466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6133D35-D48F-493E-83C7-84BF81AEAABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3C07BE8-B7CE-4758-9AE6-054A6B94C8DF}"/>
+    <workbookView xWindow="5955" yWindow="2670" windowWidth="21600" windowHeight="12930" xr2:uid="{C3C07BE8-B7CE-4758-9AE6-054A6B94C8DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -443,6 +443,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,9 +453,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5CA9C0E-32CE-473A-98C8-6A7A7F8F2F0F}">
   <dimension ref="A1:AN84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -810,25 +810,25 @@
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="39"/>
       <c r="B1" s="40"/>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -1111,30 +1111,30 @@
     <row r="18" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="42"/>
       <c r="B18" s="42"/>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38" t="s">
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
@@ -1403,10 +1403,10 @@
       <c r="C35" s="10"/>
     </row>
     <row r="36" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="37"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="10"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
@@ -1450,10 +1450,10 @@
       <c r="C42" s="10"/>
     </row>
     <row r="43" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="37"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="10"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
@@ -2101,7 +2101,7 @@
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.25">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="B69" s="28">
         <f>$B$61*B64</f>
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B70" s="28">
         <f>$B$61*B65</f>
-        <v>1380</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="B71" s="28">
         <f>$B$61*B66</f>
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="B72" s="28">
         <f>$B$61*B67</f>
-        <v>1800</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B73" s="26">
         <f>SUM(B69:B72)</f>
-        <v>6780</v>
+        <v>9040</v>
       </c>
     </row>
     <row r="84" spans="29:37" x14ac:dyDescent="0.25">
